--- a/Data/Persons.xlsx
+++ b/Data/Persons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pasca\source\repos\EasyHreg.Backend\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2AFBB3-5D2B-4C19-941D-441B38670FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359AA1B2-E54C-4483-8647-D553BD1553B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>Aufenthaltstitel B, Nr. 1234 ausgestellt am 01.01.2024 in Musterstadt</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Maximilliane</t>
+  </si>
+  <si>
+    <t>deutsche Angehörige</t>
+  </si>
+  <si>
+    <t>01.01.1992</t>
   </si>
 </sst>
 </file>
@@ -393,18 +405,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
     <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.7265625" bestFit="1" customWidth="1"/>
@@ -470,6 +482,32 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Persons.xlsx
+++ b/Data/Persons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pasca\source\repos\EasyHreg.Backend\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359AA1B2-E54C-4483-8647-D553BD1553B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25109A5-F91D-40B2-8C16-1B26AC52411C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>01.01.1992</t>
+  </si>
+  <si>
+    <t>Moritz</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>01.01.1993</t>
   </si>
 </sst>
 </file>
@@ -405,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,6 +517,32 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
